--- a/AdvanceSelenium/src/test/resources/VtigerOrganisationData.xlsx
+++ b/AdvanceSelenium/src/test/resources/VtigerOrganisationData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\eclipse-workspace\AdvanceSelenium\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\git\repository\AdvanceSelenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7ECDF7-6BD6-4EA6-AFA4-99D80D097089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE9CCF-CC1A-4FDF-A1A5-B09CC70EC5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{87489C87-1AA7-405C-9A30-611BAF3FCD1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{87489C87-1AA7-405C-9A30-611BAF3FCD1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
